--- a/yourtour/documents/design/游徒平台接口设计.xlsx
+++ b/yourtour/documents/design/游徒平台接口设计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="yt-app vs. yt-web" sheetId="1" r:id="rId1"/>
@@ -1589,11 +1589,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E38" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -1602,7 +1602,11 @@
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="12.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
-    <col min="5" max="9" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="34.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
     <col min="10" max="10" width="22.75" style="1" customWidth="1"/>
     <col min="11" max="11" width="25.625" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
@@ -2693,7 +2697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
